--- a/API_Capstone_Project/TestData/TestData.xlsx
+++ b/API_Capstone_Project/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mages\eclipse-workspace\API_Capstone_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F91B7EF-D69D-4C34-8799-F2595E50C579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0411093-51D3-4F39-B32E-B1A556BFD863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>Todos id</t>
   </si>
   <si>
-    <t>`232152</t>
-  </si>
-  <si>
-    <t>`8072388</t>
+    <t>`8078407</t>
+  </si>
+  <si>
+    <t>`233215</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="1" sqref="C2 C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -439,10 +439,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
